--- a/documents/Plan.xlsx
+++ b/documents/Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="120" windowWidth="19140" windowHeight="8208" activeTab="3"/>
+    <workbookView xWindow="190" yWindow="120" windowWidth="19140" windowHeight="8210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -408,12 +408,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -433,6 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -741,16 +751,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.77734375" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" customWidth="1"/>
+    <col min="2" max="2" width="43.1796875" customWidth="1"/>
+    <col min="3" max="3" width="71.90625" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="44.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -758,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="129.65" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -766,7 +776,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="43.25" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -788,7 +798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="43.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -799,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="129.65" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
@@ -810,7 +820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -818,7 +828,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>65</v>
       </c>
@@ -826,7 +836,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
@@ -847,12 +857,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -927,20 +937,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="72.44140625" customWidth="1"/>
+    <col min="1" max="1" width="72.453125" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="62.5546875" customWidth="1"/>
+    <col min="9" max="9" width="62.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
@@ -949,12 +959,12 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -962,7 +972,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -970,7 +980,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -978,7 +988,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -986,7 +996,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="28.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -994,7 +1004,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="57.65" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1002,7 +1012,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1018,7 +1028,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1036,40 +1046,41 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.81640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="9" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1173,9 +1184,9 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.77734375" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
